--- a/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,71 +452,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,65 +524,217 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
         <v>110</v>
       </c>
     </row>
@@ -597,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,49 +771,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>346</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,55 +468,55 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,39 +524,39 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -564,15 +564,15 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -580,47 +580,47 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -628,39 +628,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -668,73 +668,49 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45445.99999999999</v>
-      </c>
-      <c r="B35" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45452.99999999999</v>
-      </c>
-      <c r="B36" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45459.99999999999</v>
-      </c>
-      <c r="B37" t="n">
         <v>110</v>
       </c>
     </row>
@@ -790,7 +766,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -798,7 +774,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">

--- a/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -741,7 +742,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -855,6 +856,621 @@
       </c>
       <c r="B15" t="n">
         <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-73.82423894058364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.22457956366898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-71.17707999094534</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.34055967097463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-60.90845130208205</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.04555378491567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-58.35234062041096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.75814670326071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-57.3339793850044</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.0119070399985</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-52.61203688400391</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.65466603310664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-47.73044391519865</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.16213969577318</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-51.35173363108444</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.2918093566544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-45.96667802688083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56.48464475645435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-47.66628229635462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57.19592824193234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-46.91296764381313</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.70406342428835</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-47.94285784564088</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.17833177479083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-41.92131811474251</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.73988362707364</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-39.42610816731084</v>
+      </c>
+      <c r="D15" t="n">
+        <v>65.08151744562142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-37.73198652971566</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65.42989865084081</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-34.02678579592836</v>
+      </c>
+      <c r="D17" t="n">
+        <v>67.12935202959278</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-28.36828056001267</v>
+      </c>
+      <c r="D18" t="n">
+        <v>76.81876076920106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-29.10501768319008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76.88526764711307</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-23.96794685567725</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79.06470439498707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-19.23937878184386</v>
+      </c>
+      <c r="D21" t="n">
+        <v>76.71577484548503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-19.9594182695046</v>
+      </c>
+      <c r="D22" t="n">
+        <v>80.29588883913681</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-16.53947986047538</v>
+      </c>
+      <c r="D23" t="n">
+        <v>92.38560100414965</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-15.83628164840641</v>
+      </c>
+      <c r="D24" t="n">
+        <v>84.5262224044192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-19.07273840176955</v>
+      </c>
+      <c r="D25" t="n">
+        <v>86.20759107320808</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-13.49941859316193</v>
+      </c>
+      <c r="D26" t="n">
+        <v>88.39493834823683</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>39</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.89567519199886</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.60718127873467</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-10.93154266036144</v>
+      </c>
+      <c r="D28" t="n">
+        <v>91.97418142554615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.55018474034096</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95.53232601148373</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.889732642954696</v>
+      </c>
+      <c r="D30" t="n">
+        <v>95.44210028716245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-13.46947133570896</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.36307974181749</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>44</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-10.5367627495143</v>
+      </c>
+      <c r="D32" t="n">
+        <v>101.3043418057849</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.509811127216756</v>
+      </c>
+      <c r="D33" t="n">
+        <v>97.85201729405016</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>47</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-6.903107396902906</v>
+      </c>
+      <c r="D34" t="n">
+        <v>97.8671351985686</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>48</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.504889250393597</v>
+      </c>
+      <c r="D35" t="n">
+        <v>95.92213965943344</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.417696281494674</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98.74110848734087</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.504548682371232</v>
+      </c>
+      <c r="D37" t="n">
+        <v>101.7753459120746</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>51</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-4.833430526011122</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101.8740175888512</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.20964778833247</v>
+      </c>
+      <c r="D39" t="n">
+        <v>107.4093000944336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>53</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3.037710750287723</v>
+      </c>
+      <c r="D40" t="n">
+        <v>106.3923077442819</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>54</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.159614964046666</v>
+      </c>
+      <c r="D41" t="n">
+        <v>106.9751617618572</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.830385310873455</v>
+      </c>
+      <c r="D42" t="n">
+        <v>106.5909505345192</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFK7CZ_po_data.xlsx
@@ -869,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,16 +888,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -906,12 +896,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-73.82423894058364</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.22457956366898</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -920,12 +904,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-71.17707999094534</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.34055967097463</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -934,12 +912,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-60.90845130208205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.04555378491567</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -948,12 +920,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-58.35234062041096</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.75814670326071</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -962,12 +928,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>-57.3339793850044</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49.0119070399985</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -976,12 +936,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>-52.61203688400391</v>
-      </c>
-      <c r="D7" t="n">
-        <v>52.65466603310664</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -990,12 +944,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-47.73044391519865</v>
-      </c>
-      <c r="D8" t="n">
-        <v>54.16213969577318</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1004,12 +952,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-51.35173363108444</v>
-      </c>
-      <c r="D9" t="n">
-        <v>59.2918093566544</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1018,12 +960,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-45.96667802688083</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.48464475645435</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1032,12 +968,6 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>-47.66628229635462</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.19592824193234</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1046,12 +976,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-46.91296764381313</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61.70406342428835</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1060,12 +984,6 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>-47.94285784564088</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.17833177479083</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1074,12 +992,6 @@
       <c r="B14" t="n">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>-41.92131811474251</v>
-      </c>
-      <c r="D14" t="n">
-        <v>61.73988362707364</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1088,12 +1000,6 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>-39.42610816731084</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65.08151744562142</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1102,12 +1008,6 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="n">
-        <v>-37.73198652971566</v>
-      </c>
-      <c r="D16" t="n">
-        <v>65.42989865084081</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1116,12 +1016,6 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="n">
-        <v>-34.02678579592836</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.12935202959278</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1130,12 +1024,6 @@
       <c r="B18" t="n">
         <v>23</v>
       </c>
-      <c r="C18" t="n">
-        <v>-28.36828056001267</v>
-      </c>
-      <c r="D18" t="n">
-        <v>76.81876076920106</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1144,12 +1032,6 @@
       <c r="B19" t="n">
         <v>25</v>
       </c>
-      <c r="C19" t="n">
-        <v>-29.10501768319008</v>
-      </c>
-      <c r="D19" t="n">
-        <v>76.88526764711307</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1158,12 +1040,6 @@
       <c r="B20" t="n">
         <v>26</v>
       </c>
-      <c r="C20" t="n">
-        <v>-23.96794685567725</v>
-      </c>
-      <c r="D20" t="n">
-        <v>79.06470439498707</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1172,12 +1048,6 @@
       <c r="B21" t="n">
         <v>27</v>
       </c>
-      <c r="C21" t="n">
-        <v>-19.23937878184386</v>
-      </c>
-      <c r="D21" t="n">
-        <v>76.71577484548503</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1186,12 +1056,6 @@
       <c r="B22" t="n">
         <v>32</v>
       </c>
-      <c r="C22" t="n">
-        <v>-19.9594182695046</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80.29588883913681</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1200,12 +1064,6 @@
       <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" t="n">
-        <v>-16.53947986047538</v>
-      </c>
-      <c r="D23" t="n">
-        <v>92.38560100414965</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1214,12 +1072,6 @@
       <c r="B24" t="n">
         <v>36</v>
       </c>
-      <c r="C24" t="n">
-        <v>-15.83628164840641</v>
-      </c>
-      <c r="D24" t="n">
-        <v>84.5262224044192</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1228,12 +1080,6 @@
       <c r="B25" t="n">
         <v>37</v>
       </c>
-      <c r="C25" t="n">
-        <v>-19.07273840176955</v>
-      </c>
-      <c r="D25" t="n">
-        <v>86.20759107320808</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1242,12 +1088,6 @@
       <c r="B26" t="n">
         <v>38</v>
       </c>
-      <c r="C26" t="n">
-        <v>-13.49941859316193</v>
-      </c>
-      <c r="D26" t="n">
-        <v>88.39493834823683</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1256,12 +1096,6 @@
       <c r="B27" t="n">
         <v>39</v>
       </c>
-      <c r="C27" t="n">
-        <v>-14.89567519199886</v>
-      </c>
-      <c r="D27" t="n">
-        <v>87.60718127873467</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1270,12 +1104,6 @@
       <c r="B28" t="n">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
-        <v>-10.93154266036144</v>
-      </c>
-      <c r="D28" t="n">
-        <v>91.97418142554615</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1284,12 +1112,6 @@
       <c r="B29" t="n">
         <v>41</v>
       </c>
-      <c r="C29" t="n">
-        <v>-11.55018474034096</v>
-      </c>
-      <c r="D29" t="n">
-        <v>95.53232601148373</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1298,12 +1120,6 @@
       <c r="B30" t="n">
         <v>42</v>
       </c>
-      <c r="C30" t="n">
-        <v>-8.889732642954696</v>
-      </c>
-      <c r="D30" t="n">
-        <v>95.44210028716245</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1312,12 +1128,6 @@
       <c r="B31" t="n">
         <v>43</v>
       </c>
-      <c r="C31" t="n">
-        <v>-13.46947133570896</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96.36307974181749</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1326,12 +1136,6 @@
       <c r="B32" t="n">
         <v>44</v>
       </c>
-      <c r="C32" t="n">
-        <v>-10.5367627495143</v>
-      </c>
-      <c r="D32" t="n">
-        <v>101.3043418057849</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1340,12 +1144,6 @@
       <c r="B33" t="n">
         <v>46</v>
       </c>
-      <c r="C33" t="n">
-        <v>-5.509811127216756</v>
-      </c>
-      <c r="D33" t="n">
-        <v>97.85201729405016</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1354,12 +1152,6 @@
       <c r="B34" t="n">
         <v>47</v>
       </c>
-      <c r="C34" t="n">
-        <v>-6.903107396902906</v>
-      </c>
-      <c r="D34" t="n">
-        <v>97.8671351985686</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1368,12 +1160,6 @@
       <c r="B35" t="n">
         <v>48</v>
       </c>
-      <c r="C35" t="n">
-        <v>-5.504889250393597</v>
-      </c>
-      <c r="D35" t="n">
-        <v>95.92213965943344</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1382,12 +1168,6 @@
       <c r="B36" t="n">
         <v>49</v>
       </c>
-      <c r="C36" t="n">
-        <v>-3.417696281494674</v>
-      </c>
-      <c r="D36" t="n">
-        <v>98.74110848734087</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1396,12 +1176,6 @@
       <c r="B37" t="n">
         <v>50</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.504548682371232</v>
-      </c>
-      <c r="D37" t="n">
-        <v>101.7753459120746</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1410,12 +1184,6 @@
       <c r="B38" t="n">
         <v>51</v>
       </c>
-      <c r="C38" t="n">
-        <v>-4.833430526011122</v>
-      </c>
-      <c r="D38" t="n">
-        <v>101.8740175888512</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1424,12 +1192,6 @@
       <c r="B39" t="n">
         <v>52</v>
       </c>
-      <c r="C39" t="n">
-        <v>-2.20964778833247</v>
-      </c>
-      <c r="D39" t="n">
-        <v>107.4093000944336</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1438,12 +1200,6 @@
       <c r="B40" t="n">
         <v>53</v>
       </c>
-      <c r="C40" t="n">
-        <v>-3.037710750287723</v>
-      </c>
-      <c r="D40" t="n">
-        <v>106.3923077442819</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1452,12 +1208,6 @@
       <c r="B41" t="n">
         <v>54</v>
       </c>
-      <c r="C41" t="n">
-        <v>3.159614964046666</v>
-      </c>
-      <c r="D41" t="n">
-        <v>106.9751617618572</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1465,12 +1215,6 @@
       </c>
       <c r="B42" t="n">
         <v>55</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.830385310873455</v>
-      </c>
-      <c r="D42" t="n">
-        <v>106.5909505345192</v>
       </c>
     </row>
   </sheetData>
